--- a/data/income_statement/2digits/total/53_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/53_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>53-Postal and courier activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>53-Postal and courier activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>3776686.400979999</v>
@@ -962,31 +868,36 @@
         <v>5779839.12965</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>6470736.72096</v>
+        <v>6495285.484850001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7163679.674900001</v>
+        <v>7163716.85713</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>7968448.568929999</v>
+        <v>7975394.08922</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>8717542.023290001</v>
+        <v>8723887.259860002</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>10321382.70723</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>12531025.59161</v>
+        <v>12540846.15223</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>14562044.74187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14604656.59197</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>20390169.715</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>3134189.668560001</v>
@@ -1001,31 +912,36 @@
         <v>4943034.710139999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>5521709.250549999</v>
+        <v>5535699.979669999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5971625.5603</v>
+        <v>5971625.560300001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>6597821.64845</v>
+        <v>6603979.111760002</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>7160777.78009</v>
+        <v>7167123.01666</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>8315391.610269999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>9506158.679430002</v>
+        <v>9512554.87891</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>10792029.00612</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10825337.212</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>15647492.866</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>565994.14885</v>
@@ -1040,13 +956,13 @@
         <v>736516.548</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>868791.1844500001</v>
+        <v>879299.00503</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1116758.11958</v>
+        <v>1116795.30181</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1339477.23024</v>
+        <v>1340099.12372</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>1518334.85535</v>
@@ -1055,19 +971,24 @@
         <v>1910976.04235</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2946536.59755</v>
+        <v>2949890.04289</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3681555.668649999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3690701.61526</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>4596673.993</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>76502.58357</v>
+        <v>76502.58356999999</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>77435.57359999999</v>
@@ -1079,31 +1000,36 @@
         <v>100287.87151</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>80236.28595999999</v>
+        <v>80286.50015000001</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>75295.99502</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>31149.69024</v>
+        <v>31315.85374</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>38429.38785</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>95015.05461000002</v>
+        <v>95015.05461000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>78330.31462999999</v>
+        <v>78401.23043</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>88460.0671</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>88617.76470999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>146002.856</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>25945.8542</v>
@@ -1118,31 +1044,36 @@
         <v>44248.30039</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>63429.60088000001</v>
+        <v>63536.47689</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>55889.91555000001</v>
+        <v>55889.91555</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>62914.28285</v>
+        <v>62915.31415000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>69194.30202</v>
+        <v>69194.30202000002</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>92114.28601000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>172337.75442</v>
+        <v>172338.01942</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>174696.49578</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>174709.7827</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>271031.28</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>19768.26632</v>
@@ -1157,13 +1088,13 @@
         <v>19651.78638</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>33694.30107</v>
+        <v>33801.17708</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>29802.72465</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>43072.74621</v>
+        <v>43073.77751</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>57757.26994999999</v>
@@ -1172,19 +1103,24 @@
         <v>54283.50409999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>61655.86044</v>
+        <v>61656.12544</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>75680.26065000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>75693.54757</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>96771.56600000001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>5525.63575</v>
+        <v>5525.635749999999</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>6381.30825</v>
@@ -1205,7 +1141,7 @@
         <v>17467.21831</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>8930.034009999999</v>
+        <v>8930.034009999998</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>35898.83725</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>95294.14565999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>171277.913</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>651.95213</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>3722.08947</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>2981.801</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>3750740.54678</v>
@@ -1268,37 +1214,42 @@
         <v>4166789.25055</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>4974794.07839</v>
+        <v>4974794.078390001</v>
       </c>
       <c r="F13" s="47" t="n">
         <v>5735590.82926</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>6407307.12008</v>
+        <v>6431749.00796</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7107789.75935</v>
+        <v>7107826.941580001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>7905534.286080001</v>
+        <v>7912478.77507</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8648347.721270001</v>
+        <v>8654692.957839999</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>10229268.42122</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>12358687.83719</v>
+        <v>12368508.13281</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>14387348.24609</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14429946.80927</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>20119138.435</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2685525.67457</v>
@@ -1310,34 +1261,39 @@
         <v>3944935.7427</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4530172.93599</v>
+        <v>4530172.935990001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5000704.81062</v>
+        <v>5022133.16612</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5633537.771799999</v>
+        <v>5633537.81354</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6176756.7759</v>
+        <v>6183317.003059999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6900407.21508</v>
+        <v>6905012.15725</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>7904134.64206</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>9631113.626770001</v>
+        <v>9639306.831609998</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>12165536.10761</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12201698.64135</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>16802656.342</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>893.67833</v>
@@ -1358,25 +1314,30 @@
         <v>3433.43219</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1740032.31952</v>
+        <v>1740875.26566</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>2038249.26903</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2353313.933149999</v>
+        <v>2353313.93315</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2755737.249599999</v>
+        <v>2755737.2496</v>
       </c>
       <c r="M15" s="48" t="n">
         <v>22568.6761</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>8435.075000000001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>163394.81422</v>
@@ -1385,7 +1346,7 @@
         <v>157215.9987</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>171553.5445400001</v>
+        <v>171553.54454</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>261506.65461</v>
@@ -1394,10 +1355,10 @@
         <v>273851.97452</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>279415.51289</v>
+        <v>279415.55463</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>284567.2446499999</v>
+        <v>285243.13217</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>198148.64018</v>
@@ -1406,16 +1367,21 @@
         <v>204932.30693</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>246023.64265</v>
+        <v>249244.73206</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>315413.82638</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>325842.29141</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>362319.536</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>2520814.02548</v>
@@ -1430,31 +1396,36 @@
         <v>4250266.74914</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>4723603.854620001</v>
+        <v>4745032.21012</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>5319689.560299999</v>
+        <v>5319689.5603</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4147791.92143</v>
+        <v>4152833.31493</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4661037.39022</v>
+        <v>4665642.332389999</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>5343895.289</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>6627323.76584</v>
+        <v>6632295.881270001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>11824369.59456</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>11850078.66327</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>16417517.721</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>423.15654</v>
@@ -1475,7 +1446,7 @@
         <v>30999.26642</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4365.2903</v>
+        <v>4365.290300000001</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>2971.91565</v>
@@ -1487,13 +1458,18 @@
         <v>2028.96868</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>3184.01057</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>3209.01057</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>14384.01</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1065214.87221</v>
@@ -1508,31 +1484,36 @@
         <v>1205417.89327</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1406602.30946</v>
+        <v>1409615.84184</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1474251.98755</v>
+        <v>1474289.12804</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1728777.51018</v>
+        <v>1729161.77201</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1747940.50619</v>
+        <v>1749680.80059</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2325133.77916</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2727574.21042</v>
+        <v>2729201.3012</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2221812.13848</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2228248.16792</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3316482.093</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>946973.61627</v>
@@ -1541,37 +1522,42 @@
         <v>668664.5133299999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>922613.9788299999</v>
+        <v>922613.97883</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>964896.2271200001</v>
+        <v>964961.1998899998</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1353289.86297</v>
+        <v>1354843.95698</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1243734.55351</v>
+        <v>1243781.06014</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1388475.71639</v>
+        <v>1389040.36213</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1610425.81663</v>
+        <v>1610956.50268</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1896243.19058</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2571175.58889</v>
+        <v>2573591.35196</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3172291.3781</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3181937.21643</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3373007.097</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>350.11126</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>3404.64479</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>4996.101</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>452437.32432</v>
@@ -1631,28 +1622,33 @@
         <v>293183.18015</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>331337.15906</v>
+        <v>331421.80115</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>362980.36797</v>
+        <v>363140.521</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>393129.28236</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>442377.79815</v>
+        <v>444170.1034599999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>533772.5075600001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>536053.04489</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>248590.032</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>494186.1806900001</v>
+        <v>494186.18069</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>549599.8710800001</v>
@@ -1661,34 +1657,39 @@
         <v>723202.07281</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>752689.0633600001</v>
+        <v>752754.03613</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1051425.82271</v>
+        <v>1052979.91672</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>948260.27295</v>
+        <v>948306.77958</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1055208.44355</v>
+        <v>1055688.4472</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1247445.44866</v>
+        <v>1247815.98168</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1503030.26527</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2127117.64124</v>
+        <v>2127741.099</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2635114.22575</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2642479.52675</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3119420.964</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>118241.25594</v>
@@ -1700,34 +1701,39 @@
         <v>107244.35686</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>240521.66615</v>
+        <v>240456.69338</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>53312.44649</v>
+        <v>54771.88486000001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>230517.43404</v>
+        <v>230508.0679</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>340301.79379</v>
+        <v>340121.40988</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>137514.68956</v>
+        <v>138724.29791</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>428890.58858</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>156398.62153</v>
+        <v>155609.94924</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-950479.23962</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-953689.0485100001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-56525.004</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>213627.70029</v>
@@ -1739,34 +1745,39 @@
         <v>204890.77876</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>159908.68511</v>
+        <v>160232.30004</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>276130.36395</v>
+        <v>278604.9312</v>
       </c>
       <c r="H25" s="47" t="n">
         <v>312861.22276</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>499972.18106</v>
+        <v>500023.76145</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>552335.4302300001</v>
+        <v>552419.9820399999</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>589753.03311</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>889136.5561800001</v>
+        <v>889141.5523300001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>564213.34366</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>564415.0982799999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>915599.7439999999</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0.17523</v>
@@ -1793,7 +1804,7 @@
         <v>122.82098</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>588.3790900000001</v>
+        <v>588.37909</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>294.5173</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>1514.953</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>30.106</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>71447.6758</v>
@@ -1859,16 +1880,16 @@
         <v>56898.25394</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>68937.61457999999</v>
+        <v>68949.39121</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>112297.16252</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>176534.55404</v>
+        <v>176563.98822</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>214812.49865</v>
+        <v>214812.97574</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>78266.06642</v>
@@ -1877,13 +1898,18 @@
         <v>241361.5632</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>87283.89223999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>87337.7588</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>99737.409</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>8.21833</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>39.45377</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>377.578</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>5669.77895</v>
@@ -1952,16 +1983,21 @@
         <v>6672.11054</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>9561.454379999999</v>
+        <v>9561.454380000001</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>14210.06548</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>13090.011</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>5759.64313</v>
@@ -1996,14 +2032,19 @@
       <c r="M31" s="48" t="n">
         <v>2089.42803</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>6439.495</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>79252.59903</v>
+        <v>79252.59903000001</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>25167.81667</v>
@@ -2012,16 +2053,16 @@
         <v>35541.15904</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>16560.24546</v>
+        <v>16883.86039</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>56361.2362</v>
+        <v>58824.02682</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>31528.23916</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>61168.49059</v>
+        <v>61171.61414</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>93672.81741</v>
@@ -2030,16 +2071,21 @@
         <v>336059.94722</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>422267.79865</v>
+        <v>422269.36853</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>232370.43584</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>232491.25142</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>416429.111</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>21.59168</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>2.91014</v>
@@ -2113,17 +2164,22 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>51486.69968</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>94668.71544000001</v>
+        <v>94668.71544</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>110869.12873</v>
@@ -2138,25 +2194,30 @@
         <v>127887.35937</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>232692.34494</v>
+        <v>232711.3676</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>205516.59832</v>
+        <v>205600.67304</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>164575.91708</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>211476.08609</v>
+        <v>211479.51236</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>227903.95932</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>227931.0318</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>377981.081</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>88658.80479000001</v>
@@ -2168,34 +2229,39 @@
         <v>87355.00298</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>91047.88325</v>
+        <v>91184.60878</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>126785.71726</v>
+        <v>130369.45749</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>129697.58853</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>173203.41864</v>
+        <v>173204.13602</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>192559.6433</v>
+        <v>192636.70492</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>440475.44386</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>611976.59909</v>
+        <v>611984.9580399999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>371136.67739</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>371244.79682</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>691331.7830000001</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>3200.58267</v>
@@ -2225,22 +2291,27 @@
         <v>20461.70475</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>24571.86474</v>
+        <v>24571.86796</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>24228.90781</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>26514.966</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>13761.12076</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>8781.823570000002</v>
+        <v>8781.82357</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>10819.63241</v>
@@ -2249,7 +2320,7 @@
         <v>17030.34506</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>16801.99846</v>
+        <v>16960.3416</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>18445.98982</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>53535.94233</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>54875.23</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1.7086</v>
@@ -2308,14 +2384,19 @@
       <c r="M39" s="48" t="n">
         <v>2013.46754</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>4624.899</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>64747.69843</v>
+        <v>64747.69843000001</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>56706.23897999999</v>
@@ -2324,16 +2405,16 @@
         <v>52613.36697</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>42567.87677</v>
+        <v>42704.60230000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>70156.78715</v>
+        <v>73582.18423999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>65749.74111999999</v>
+        <v>65749.74112000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>79462.80702000001</v>
+        <v>79463.29776999999</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>100093.44203</v>
@@ -2342,16 +2423,21 @@
         <v>360974.66847</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>509173.73418</v>
+        <v>509182.08977</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>259388.64032</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>259492.79935</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>500463.989</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>465.34329</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>80.65047</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>3e-05</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>23.756</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>6482.351009999999</v>
@@ -2450,25 +2546,30 @@
         <v>24432.06304</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>48064.47386000001</v>
+        <v>48064.70049</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>40140.47388000001</v>
+        <v>40217.5355</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>32944.00376</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>41731.93319999999</v>
+        <v>41731.93334</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>31889.06892</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>31893.02932000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>104828.943</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>20291.84471</v>
@@ -2480,34 +2581,39 @@
         <v>26970.3416</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>23283.85566</v>
+        <v>23285.13654</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>21775.15188</v>
+        <v>21783.01318</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>17566.09176</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>19721.74228</v>
+        <v>19752.92314</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>19352.20107</v>
+        <v>19563.63072</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>27461.35633999999</v>
+        <v>27461.35634</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>67574.16432000001</v>
+        <v>67574.96706</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>72244.06325000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>72267.75732999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>94622.98</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>9645.27642</v>
@@ -2519,40 +2625,45 @@
         <v>21974.65176</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>21788.65546</v>
+        <v>21789.93634</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>12238.41659</v>
+        <v>12246.27789</v>
       </c>
       <c r="H45" s="48" t="n">
         <v>10675.27459</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>15237.0008</v>
+        <v>15268.18166</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>15651.17296</v>
+        <v>15862.60261</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>25456.1656</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>65966.30174</v>
+        <v>65967.10447999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>72189.40609</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>72213.10016999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>87358.79300000001</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>10646.56829</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>8688.312849999998</v>
+        <v>8688.31285</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>4995.68984</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>54.65716</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>7264.187</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>222918.30673</v>
@@ -2597,34 +2713,39 @@
         <v>197809.79104</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>286098.61235</v>
+        <v>286219.2481</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>180881.9413</v>
+        <v>181224.34539</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>396114.97651</v>
+        <v>396105.61037</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>647348.8139300001</v>
+        <v>647188.1121700001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>477938.27542</v>
+        <v>478943.94431</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>550706.82149</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>365984.4142999999</v>
+        <v>365191.57647</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-829646.6366000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-832786.5043799999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>73119.977</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>131034.60137</v>
@@ -2639,34 +2760,39 @@
         <v>146317.51591</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>134170.00523</v>
+        <v>134186.44442</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>168259.41631</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>156358.38431</v>
+        <v>156386.64874</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>335173.37353</v>
+        <v>335399.31165</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>664179.1633199999</v>
+        <v>664179.1633200001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>313132.27927</v>
+        <v>313132.76017</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>122219.09719</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>122269.43498</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>511633.488</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>4391.367089999999</v>
+        <v>4391.36709</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>3997.00813</v>
@@ -2698,17 +2824,22 @@
       <c r="M49" s="48" t="n">
         <v>12066.74058</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>349772.78</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>126643.23428</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>99612.59078000001</v>
+        <v>99612.59078</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>122017.08531</v>
@@ -2717,31 +2848,36 @@
         <v>142176.6936</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>131147.09059</v>
+        <v>131163.52978</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>166267.8171</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>147433.8035</v>
+        <v>147462.06793</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>328015.95635</v>
+        <v>328241.8944700001</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>619428.92151</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>297997.7178</v>
+        <v>297998.1987000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>110152.35661</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>110202.6944</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>161860.708</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>15478.82043</v>
@@ -2753,34 +2889,39 @@
         <v>172869.62429</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>32161.13433</v>
+        <v>32161.14683</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>82265.65089</v>
+        <v>82346.16062000001</v>
       </c>
       <c r="H51" s="47" t="n">
         <v>74700.91564000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>80252.66829999999</v>
+        <v>80379.86438</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>105963.96707</v>
+        <v>106574.17008</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>168069.45303</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>176085.0395</v>
+        <v>176110.35052</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>271588.48829</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>272125.10977</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>286219.179</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>9.71735</v>
@@ -2813,13 +2954,18 @@
         <v>0</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>4.00204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>26.08104</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>115.33</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1882.47051</v>
@@ -2828,13 +2974,13 @@
         <v>3712.96461</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>8117.119489999998</v>
+        <v>8117.119489999999</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>4969.457459999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>3950.19867</v>
+        <v>3953.86286</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>34664.05283</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>237509.18612</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>164101.954</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>13586.63257</v>
@@ -2870,34 +3021,39 @@
         <v>164749.80494</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>27191.28115999999</v>
+        <v>27191.29366</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>78248.56045000002</v>
+        <v>78325.40599000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>40033.66514999999</v>
+        <v>40033.66515</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>45743.86493</v>
+        <v>45871.06101</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>55950.90017</v>
+        <v>56561.10318</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>64295.94555</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>59137.35323</v>
+        <v>59162.66425</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>34075.30013</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>34589.84261</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>122001.895</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>338474.08767</v>
@@ -2909,34 +3065,39 @@
         <v>153189.93859</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>400254.9939299999</v>
+        <v>400375.6171799999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>232786.29564</v>
+        <v>233064.62919</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>489673.4771799999</v>
+        <v>489664.11104</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>723454.5299399999</v>
+        <v>723194.8965299998</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>707147.68188</v>
+        <v>707769.08588</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1046816.53178</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>503031.65407</v>
+        <v>502213.98612</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-979016.0277</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-982642.1791699999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>298534.286</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>27707.85126</v>
@@ -2957,25 +3118,30 @@
         <v>111494.09823</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>153858.69034</v>
+        <v>153866.51655</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>133699.74621</v>
+        <v>133914.007</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>208547.3594</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>147135.89104</v>
+        <v>147169.59082</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>77137.76987</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>77168.15661000002</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>291069.689</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>310766.23641</v>
@@ -2987,31 +3153,34 @@
         <v>123057.41991</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>315080.45769</v>
+        <v>315201.08094</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>177231.29921</v>
+        <v>177509.63276</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>378179.37895</v>
+        <v>378170.01281</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>569595.8396000001</v>
+        <v>569328.37998</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>573447.93567</v>
+        <v>573855.07888</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>838269.17238</v>
+        <v>838269.1723799999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>355895.76303</v>
+        <v>355044.3953</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-1056153.79757</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-1059810.33578</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>7464.597</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>290</v>
@@ -3041,31 +3213,34 @@
         <v>360</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>724</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>722</v>
+        <v>769</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>855</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>